--- a/data-raw/design_raw.xlsx
+++ b/data-raw/design_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgz813\Desktop\R\2022_novonak_metabolomics\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6FB7C2-5FB8-45BA-B606-A1E5F2D8D1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7FDB59-7EF1-4288-8F7B-8F51C9A88A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57600" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="85">
   <si>
     <t>sample</t>
   </si>
@@ -288,23 +288,22 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>hb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,11 +335,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,20 +655,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,130 +683,163 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.867</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.54299999999999993</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -816,397 +848,502 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.867</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>80</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.47600000000000003</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.47600000000000003</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>78</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6.5259999999999998</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6.5259999999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
       <c r="E20" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="1">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
       <c r="D22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="H22" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.43650000000000005</v>
+      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="1">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.43650000000000005</v>
+      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
+      <c r="A24" t="s">
+        <v>58</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="F24" s="1">
+        <v>4.907</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.46799999999999997</v>
+      </c>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.45799999999999996</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.2495</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.45799999999999996</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="H27" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>78</v>
@@ -1217,34 +1354,44 @@
       <c r="E29" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="F29" s="1">
+        <v>4.907</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="H30" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
+      <c r="A31" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>80</v>
@@ -1255,15 +1402,20 @@
       <c r="E31" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="1">
+        <v>0.2495</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
@@ -1272,17 +1424,22 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="H32" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>77</v>
@@ -1291,55 +1448,70 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="H33" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
+      <c r="A34" t="s">
+        <v>48</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="F34" s="1">
+        <v>4.4340000000000002</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
+      <c r="A35" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="F35" s="1">
+        <v>0.3755</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
@@ -1350,72 +1522,92 @@
       <c r="E36" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="F36" s="1">
+        <v>0.3105</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="F37" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
+      <c r="A38" t="s">
+        <v>44</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="F38" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>42</v>
+      <c r="A39" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="F39" s="1">
+        <v>4.4340000000000002</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
+      <c r="A40" t="s">
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
@@ -1424,36 +1616,46 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="H40" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.3755</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="F41" s="1">
+        <v>0.3105</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>76</v>
@@ -1464,72 +1666,92 @@
       <c r="E42" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="F42" s="1">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>46</v>
+      <c r="A43" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="F43" s="1">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>47</v>
+      <c r="A44" t="s">
+        <v>68</v>
       </c>
       <c r="B44">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="H44" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6.0350000000000001</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.48100000000000004</v>
+      </c>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="F45" s="1">
+        <v>0.504</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>80</v>
@@ -1540,219 +1762,279 @@
       <c r="E46" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="F46" s="1">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>50</v>
+      <c r="A47" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="H47" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6.0350000000000001</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.504</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
         <v>76</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4.5430000000000001</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55">
         <v>4</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
         <v>80</v>
       </c>
-      <c r="D49">
+      <c r="D56">
         <v>5</v>
       </c>
-      <c r="E49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="E56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B51">
+      <c r="B57">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C57" t="s">
         <v>76</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>82</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>79</v>
-      </c>
       <c r="D57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="1">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -1768,12 +2050,17 @@
       <c r="E58" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>62</v>
+      <c r="F58" s="1">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B59">
         <v>8</v>
@@ -1785,17 +2072,22 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4.5430000000000001</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>79</v>
@@ -1804,36 +2096,46 @@
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
         <v>4</v>
-      </c>
-      <c r="E61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>
@@ -1844,173 +2146,189 @@
       <c r="E62" t="s">
         <v>82</v>
       </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
+      <c r="F62" s="1"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
       </c>
       <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
         <v>80</v>
       </c>
-      <c r="D63">
+      <c r="D66">
         <v>5</v>
       </c>
-      <c r="E63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
-        <v>82</v>
-      </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
       <c r="E66" t="s">
-        <v>81</v>
-      </c>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>81</v>
       </c>
+      <c r="F67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>71</v>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>36</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
         <v>79</v>
       </c>
-      <c r="D68">
+      <c r="D70">
         <v>4</v>
       </c>
-      <c r="E68" t="s">
-        <v>81</v>
-      </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
-        <v>81</v>
-      </c>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
       <c r="E70" t="s">
         <v>81</v>
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H71" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M61" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="A1:M61" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M71">
+      <sortCondition ref="B1:B61"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
